--- a/Test_Plan_TestCases_Boyko.xlsx
+++ b/Test_Plan_TestCases_Boyko.xlsx
@@ -653,13 +653,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -668,6 +661,13 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,8 +1177,8 @@
   <dimension ref="A1:S324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="15" spans="1:19" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="45"/>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="45"/>
-      <c r="F15" s="56"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="45"/>
       <c r="H15" s="45"/>
       <c r="I15" s="30"/>
@@ -1669,13 +1669,13 @@
     </row>
     <row r="16" spans="1:19" s="23" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="45"/>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
       <c r="E16" s="45"/>
-      <c r="F16" s="56"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="45"/>
       <c r="H16" s="45"/>
       <c r="I16" s="30"/>
@@ -8231,16 +8231,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="52"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -8327,12 +8327,12 @@
       <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8410,16 +8410,16 @@
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="53" t="s">
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="55"/>
     </row>
     <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
